--- a/projection/csv/sabeghe_bimepardaz_just_all.xlsx
+++ b/projection/csv/sabeghe_bimepardaz_just_all.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>age</t>
+    <t>insurance_record</t>
   </si>
   <si>
     <t>average_salary</t>
   </si>
   <si>
-    <t>average_age</t>
+    <t>age</t>
   </si>
   <si>
     <t>number</t>
@@ -43,7 +43,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -99,10 +99,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,12 +416,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="26.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +443,7 @@
         <v>42661332</v>
       </c>
       <c r="C2" s="5">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>772312</v>
@@ -454,7 +457,7 @@
         <v>42661332</v>
       </c>
       <c r="C3" s="5">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>772312</v>
@@ -468,7 +471,7 @@
         <v>42661332</v>
       </c>
       <c r="C4" s="5">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>772312</v>
@@ -482,7 +485,7 @@
         <v>42661332</v>
       </c>
       <c r="C5" s="5">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>772312</v>
@@ -496,7 +499,7 @@
         <v>42661332</v>
       </c>
       <c r="C6" s="5">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>772312</v>
@@ -580,7 +583,7 @@
         <v>48597539</v>
       </c>
       <c r="C12" s="5">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
         <v>734842</v>
@@ -594,7 +597,7 @@
         <v>48597539</v>
       </c>
       <c r="C13" s="5">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2">
         <v>734842</v>
@@ -608,7 +611,7 @@
         <v>48597539</v>
       </c>
       <c r="C14" s="5">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2">
         <v>734842</v>
@@ -622,7 +625,7 @@
         <v>48597539</v>
       </c>
       <c r="C15" s="5">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2">
         <v>734842</v>
@@ -636,13 +639,13 @@
         <v>48597539</v>
       </c>
       <c r="C16" s="5">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2">
         <v>734842</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -650,13 +653,13 @@
         <v>59275008</v>
       </c>
       <c r="C17" s="5">
-        <v>46.6</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>445510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -664,13 +667,13 @@
         <v>59275008</v>
       </c>
       <c r="C18" s="5">
-        <v>46.6</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
         <v>445510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -678,13 +681,13 @@
         <v>59275008</v>
       </c>
       <c r="C19" s="5">
-        <v>46.6</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2">
         <v>445510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -692,13 +695,13 @@
         <v>59275008</v>
       </c>
       <c r="C20" s="5">
-        <v>46.6</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2">
         <v>445510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -706,13 +709,13 @@
         <v>59275008</v>
       </c>
       <c r="C21" s="5">
-        <v>46.6</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2">
         <v>445510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -720,13 +723,13 @@
         <v>68048840</v>
       </c>
       <c r="C22" s="5">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>218190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -734,13 +737,13 @@
         <v>68048840</v>
       </c>
       <c r="C23" s="5">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2">
         <v>218190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -748,13 +751,13 @@
         <v>68048840</v>
       </c>
       <c r="C24" s="5">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
         <v>218190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -762,13 +765,13 @@
         <v>68048840</v>
       </c>
       <c r="C25" s="5">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
         <v>218190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -776,13 +779,13 @@
         <v>68048840</v>
       </c>
       <c r="C26" s="5">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
         <v>218190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -790,13 +793,13 @@
         <v>77160884</v>
       </c>
       <c r="C27" s="5">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2">
         <v>82183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -804,13 +807,13 @@
         <v>77160884</v>
       </c>
       <c r="C28" s="5">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2">
         <v>82183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -818,7 +821,7 @@
         <v>77160884</v>
       </c>
       <c r="C29" s="5">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2">
         <v>82183</v>
@@ -832,7 +835,7 @@
         <v>77160884</v>
       </c>
       <c r="C30" s="5">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2">
         <v>82183</v>
@@ -846,7 +849,7 @@
         <v>77160884</v>
       </c>
       <c r="C31" s="5">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D31" s="2">
         <v>82183</v>
@@ -860,7 +863,7 @@
         <v>96964724</v>
       </c>
       <c r="C32" s="5">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2">
         <v>13958</v>
@@ -874,7 +877,7 @@
         <v>96964724</v>
       </c>
       <c r="C33" s="5">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2">
         <v>13958</v>
@@ -888,7 +891,7 @@
         <v>96964724</v>
       </c>
       <c r="C34" s="5">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2">
         <v>13958</v>
@@ -902,7 +905,7 @@
         <v>96964724</v>
       </c>
       <c r="C35" s="5">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="D35" s="2">
         <v>13958</v>
@@ -916,7 +919,7 @@
         <v>96964724</v>
       </c>
       <c r="C36" s="5">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2">
         <v>13958</v>
@@ -930,7 +933,7 @@
         <v>96964724</v>
       </c>
       <c r="C37" s="5">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2">
         <v>13958</v>
